--- a/kombinasi-parameter-LSTM.xlsx
+++ b/kombinasi-parameter-LSTM.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -460,10 +460,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.01241341512650251</v>
+        <v>0.01246552503578467</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1300846189260483</v>
+        <v>0.1209115341101607</v>
       </c>
     </row>
     <row r="3">
@@ -476,10 +476,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.01227213349193335</v>
+        <v>0.01227065029056513</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1484593451023102</v>
+        <v>0.1504329404194061</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.01232644263654947</v>
+        <v>0.01231825188414691</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1400121003389359</v>
+        <v>0.1402544625205537</v>
       </c>
     </row>
     <row r="5">
@@ -508,10 +508,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.01250894460827112</v>
+        <v>0.01279021132329147</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1236992031335831</v>
+        <v>0.09870017146411007</v>
       </c>
     </row>
     <row r="6">
@@ -524,10 +524,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.01242402289062738</v>
+        <v>0.01225804493520154</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1521528363227844</v>
+        <v>0.1555769322057293</v>
       </c>
     </row>
     <row r="7">
@@ -540,10 +540,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.01231520995497704</v>
+        <v>0.01231066212424855</v>
       </c>
       <c r="D7" t="n">
-        <v>0.14096599817276</v>
+        <v>0.1438578871423251</v>
       </c>
     </row>
     <row r="8">
@@ -556,10 +556,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.01238573621958494</v>
+        <v>0.01256037356127819</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1259415149688721</v>
+        <v>0.115233011441688</v>
       </c>
     </row>
     <row r="9">
@@ -572,10 +572,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.01245329342782497</v>
+        <v>0.01234221274722112</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1428157091140747</v>
+        <v>0.1420038486384366</v>
       </c>
     </row>
     <row r="10">
@@ -588,10 +588,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.01233391743153334</v>
+        <v>0.012275744117924</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1491393446922302</v>
+        <v>0.1345719464429437</v>
       </c>
     </row>
     <row r="11">
@@ -604,10 +604,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.01244337670505047</v>
+        <v>0.012568803861329</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1314982622861862</v>
+        <v>0.1183888231442399</v>
       </c>
     </row>
     <row r="12">
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.01227027643471956</v>
+        <v>0.01232433105397918</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1461262702941895</v>
+        <v>0.1364801681205018</v>
       </c>
     </row>
     <row r="13">
@@ -636,10 +636,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.01267637498676777</v>
+        <v>0.01241904398432792</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1293034702539444</v>
+        <v>0.1554832648332805</v>
       </c>
     </row>
     <row r="14">
@@ -652,10 +652,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.0004796362190973014</v>
+        <v>0.0003559710620633368</v>
       </c>
       <c r="D14" t="n">
-        <v>0.002246904885396361</v>
+        <v>0.001912633231394503</v>
       </c>
     </row>
     <row r="15">
@@ -668,10 +668,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.0003760661347769201</v>
+        <v>0.0004269385499854202</v>
       </c>
       <c r="D15" t="n">
-        <v>0.001221994985826313</v>
+        <v>0.001396047211354216</v>
       </c>
     </row>
     <row r="16">
@@ -684,10 +684,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.0003344850265420973</v>
+        <v>0.000342857658748247</v>
       </c>
       <c r="D16" t="n">
-        <v>0.001644092495553195</v>
+        <v>0.001168403535290328</v>
       </c>
     </row>
     <row r="17">
@@ -700,10 +700,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.0003665334079414606</v>
+        <v>0.0003638785072898951</v>
       </c>
       <c r="D17" t="n">
-        <v>0.001154096215032041</v>
+        <v>0.001296681867057636</v>
       </c>
     </row>
     <row r="18">
@@ -716,10 +716,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.0003422987356316298</v>
+        <v>0.0003405390610306026</v>
       </c>
       <c r="D18" t="n">
-        <v>0.00170154613442719</v>
+        <v>0.001245046303964743</v>
       </c>
     </row>
     <row r="19">
@@ -732,10 +732,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.0003391792997717857</v>
+        <v>0.0003340120924866363</v>
       </c>
       <c r="D19" t="n">
-        <v>0.001109617645852268</v>
+        <v>0.001169391918914673</v>
       </c>
     </row>
     <row r="20">
@@ -748,10 +748,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.00035087950527668</v>
+        <v>0.0003498756806748881</v>
       </c>
       <c r="D20" t="n">
-        <v>0.001148138660937548</v>
+        <v>0.001123702712516517</v>
       </c>
     </row>
     <row r="21">
@@ -764,10 +764,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.0003996235900558531</v>
+        <v>0.0003728462775454742</v>
       </c>
       <c r="D21" t="n">
-        <v>0.001130149117670953</v>
+        <v>0.001127115497046648</v>
       </c>
     </row>
     <row r="22">
@@ -780,10 +780,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.0003828656044788659</v>
+        <v>0.0003530478191861806</v>
       </c>
       <c r="D22" t="n">
-        <v>0.00119317474309355</v>
+        <v>0.001375412483929261</v>
       </c>
     </row>
     <row r="23">
@@ -796,10 +796,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.0003458879655227065</v>
+        <v>0.0003692791825128489</v>
       </c>
       <c r="D23" t="n">
-        <v>0.001247925451025367</v>
+        <v>0.001290787176439564</v>
       </c>
     </row>
     <row r="24">
@@ -812,10 +812,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.0003249510191380978</v>
+        <v>0.0004737122009878289</v>
       </c>
       <c r="D24" t="n">
-        <v>0.001109131146222353</v>
+        <v>0.001607600372278272</v>
       </c>
     </row>
     <row r="25">
@@ -828,10 +828,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.0003320958057884127</v>
+        <v>0.0003599861127640159</v>
       </c>
       <c r="D25" t="n">
-        <v>0.001180584542453289</v>
+        <v>0.001187736449176318</v>
       </c>
     </row>
     <row r="26">
@@ -844,10 +844,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.01248727273195982</v>
+        <v>0.01249306911781226</v>
       </c>
       <c r="D26" t="n">
-        <v>0.1304243355989456</v>
+        <v>0.1182376446381007</v>
       </c>
     </row>
     <row r="27">
@@ -860,10 +860,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.01239278726279736</v>
+        <v>0.0123328288302642</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1516347974538803</v>
+        <v>0.1368130331170069</v>
       </c>
     </row>
     <row r="28">
@@ -876,10 +876,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.01255339849740267</v>
+        <v>0.01255888967736535</v>
       </c>
       <c r="D28" t="n">
-        <v>0.1406104415655136</v>
+        <v>0.128425341150532</v>
       </c>
     </row>
     <row r="29">
@@ -892,10 +892,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.01243788190186024</v>
+        <v>0.01253087719829039</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1238939240574837</v>
+        <v>0.1354510496332221</v>
       </c>
     </row>
     <row r="30">
@@ -908,10 +908,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.01243320759385824</v>
+        <v>0.01238691824654194</v>
       </c>
       <c r="D30" t="n">
-        <v>0.1369359791278839</v>
+        <v>0.1421657566950746</v>
       </c>
     </row>
     <row r="31">
@@ -924,10 +924,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.01230855472385883</v>
+        <v>0.01234313194984443</v>
       </c>
       <c r="D31" t="n">
-        <v>0.1467854380607605</v>
+        <v>0.1455145210844197</v>
       </c>
     </row>
     <row r="32">
@@ -940,10 +940,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.01271666493266821</v>
+        <v>0.01247928323613301</v>
       </c>
       <c r="D32" t="n">
-        <v>0.1292400360107422</v>
+        <v>0.1365957988859856</v>
       </c>
     </row>
     <row r="33">
@@ -956,10 +956,10 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.0127621004357934</v>
+        <v>0.0122867651532519</v>
       </c>
       <c r="D33" t="n">
-        <v>0.1390935778617859</v>
+        <v>0.1523201330883862</v>
       </c>
     </row>
     <row r="34">
@@ -972,10 +972,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.01247564610093832</v>
+        <v>0.0126111449495162</v>
       </c>
       <c r="D34" t="n">
-        <v>0.1363307982683182</v>
+        <v>0.1282817922430496</v>
       </c>
     </row>
     <row r="35">
@@ -988,10 +988,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.01258681062608957</v>
+        <v>0.0123925272069157</v>
       </c>
       <c r="D35" t="n">
-        <v>0.1159690842032433</v>
+        <v>0.127908590109381</v>
       </c>
     </row>
     <row r="36">
@@ -1004,10 +1004,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.01271500159054995</v>
+        <v>0.01240240952178632</v>
       </c>
       <c r="D36" t="n">
-        <v>0.1416086405515671</v>
+        <v>0.137489380085305</v>
       </c>
     </row>
     <row r="37">
@@ -1020,10 +1020,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.01234230864793062</v>
+        <v>0.01241084763601626</v>
       </c>
       <c r="D37" t="n">
-        <v>0.1455546021461487</v>
+        <v>0.1452956814063738</v>
       </c>
     </row>
     <row r="38">
@@ -1036,10 +1036,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.0004273469385225326</v>
+        <v>0.0004120242872836757</v>
       </c>
       <c r="D38" t="n">
-        <v>0.002119313227012753</v>
+        <v>0.001193297520592452</v>
       </c>
     </row>
     <row r="39">
@@ -1052,10 +1052,10 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.0003524287312757224</v>
+        <v>0.0003241604606282884</v>
       </c>
       <c r="D39" t="n">
-        <v>0.001145533286035061</v>
+        <v>0.001098952077533284</v>
       </c>
     </row>
     <row r="40">
@@ -1068,10 +1068,10 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.0004443176731001586</v>
+        <v>0.0003231447461150485</v>
       </c>
       <c r="D40" t="n">
-        <v>0.001600609044544399</v>
+        <v>0.001067310074114636</v>
       </c>
     </row>
     <row r="41">
@@ -1084,10 +1084,10 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.0003616014437284321</v>
+        <v>0.0003472567286361519</v>
       </c>
       <c r="D41" t="n">
-        <v>0.001770834787748754</v>
+        <v>0.001771450368049618</v>
       </c>
     </row>
     <row r="42">
@@ -1100,10 +1100,10 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.0003238597419112921</v>
+        <v>0.0003205239592392751</v>
       </c>
       <c r="D42" t="n">
-        <v>0.001044591655954719</v>
+        <v>0.001006748359841741</v>
       </c>
     </row>
     <row r="43">
@@ -1116,10 +1116,10 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.0003340154362376779</v>
+        <v>0.0003106753287632784</v>
       </c>
       <c r="D43" t="n">
-        <v>0.001359497895464301</v>
+        <v>0.001027158186021452</v>
       </c>
     </row>
     <row r="44">
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.0003412161022424698</v>
+        <v>0.0003462764059754778</v>
       </c>
       <c r="D44" t="n">
-        <v>0.001265908358618617</v>
+        <v>0.001055548503382565</v>
       </c>
     </row>
     <row r="45">
@@ -1148,10 +1148,10 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.0003287593135610223</v>
+        <v>0.0004058076181984825</v>
       </c>
       <c r="D45" t="n">
-        <v>0.001034437795169652</v>
+        <v>0.001004463885368601</v>
       </c>
     </row>
     <row r="46">
@@ -1164,10 +1164,10 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.0003376347594894469</v>
+        <v>0.0003762884585390965</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0009862259030342102</v>
+        <v>0.001284786940979682</v>
       </c>
     </row>
     <row r="47">
@@ -1180,10 +1180,10 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.0003235992044210434</v>
+        <v>0.0003405135276022508</v>
       </c>
       <c r="D47" t="n">
-        <v>0.001043459167703986</v>
+        <v>0.001018028072406831</v>
       </c>
     </row>
     <row r="48">
@@ -1196,10 +1196,10 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.0003297997754998505</v>
+        <v>0.0003334053665776705</v>
       </c>
       <c r="D48" t="n">
-        <v>0.001014957902953029</v>
+        <v>0.001210063609792149</v>
       </c>
     </row>
     <row r="49">
@@ -1212,10 +1212,10 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.000318925071042031</v>
+        <v>0.0003265361998298793</v>
       </c>
       <c r="D49" t="n">
-        <v>0.001001662225462496</v>
+        <v>0.001031131365604392</v>
       </c>
     </row>
     <row r="50">
@@ -1228,10 +1228,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.01258367206901312</v>
+        <v>0.01267987716470985</v>
       </c>
       <c r="D50" t="n">
-        <v>0.1272516995668411</v>
+        <v>0.1315237924660722</v>
       </c>
     </row>
     <row r="51">
@@ -1244,10 +1244,10 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.01233620010316372</v>
+        <v>0.01241253932606276</v>
       </c>
       <c r="D51" t="n">
-        <v>0.1393005847930908</v>
+        <v>0.1428452556672161</v>
       </c>
     </row>
     <row r="52">
@@ -1260,10 +1260,10 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.01233672723174095</v>
+        <v>0.01244707645095681</v>
       </c>
       <c r="D52" t="n">
-        <v>0.1530305743217468</v>
+        <v>0.1450723998554765</v>
       </c>
     </row>
     <row r="53">
@@ -1276,10 +1276,10 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.01266206428408623</v>
+        <v>0.01271066607983961</v>
       </c>
       <c r="D53" t="n">
-        <v>0.1300049424171448</v>
+        <v>0.1319894498749955</v>
       </c>
     </row>
     <row r="54">
@@ -1292,10 +1292,10 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.01241790223866701</v>
+        <v>0.01236541185221852</v>
       </c>
       <c r="D54" t="n">
-        <v>0.1424260437488556</v>
+        <v>0.146933194607088</v>
       </c>
     </row>
     <row r="55">
@@ -1308,10 +1308,10 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.01235514134168625</v>
+        <v>0.01249803464910755</v>
       </c>
       <c r="D55" t="n">
-        <v>0.1467186063528061</v>
+        <v>0.1454719498957673</v>
       </c>
     </row>
     <row r="56">
@@ -1324,10 +1324,10 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.01254129223525524</v>
+        <v>0.01260025687005422</v>
       </c>
       <c r="D56" t="n">
-        <v>0.1367709785699844</v>
+        <v>0.1279341572359817</v>
       </c>
     </row>
     <row r="57">
@@ -1340,10 +1340,10 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.01238040532916784</v>
+        <v>0.01257776295485562</v>
       </c>
       <c r="D57" t="n">
-        <v>0.1351194530725479</v>
+        <v>0.1499669106855784</v>
       </c>
     </row>
     <row r="58">
@@ -1356,10 +1356,10 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.01249030046164989</v>
+        <v>0.01238301360647972</v>
       </c>
       <c r="D58" t="n">
-        <v>0.1409245282411575</v>
+        <v>0.1317473312150942</v>
       </c>
     </row>
     <row r="59">
@@ -1372,10 +1372,10 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.01264225784689188</v>
+        <v>0.01265208807148754</v>
       </c>
       <c r="D59" t="n">
-        <v>0.1289763450622559</v>
+        <v>0.135124046100329</v>
       </c>
     </row>
     <row r="60">
@@ -1388,10 +1388,10 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.01236829347908497</v>
+        <v>0.01226482479131385</v>
       </c>
       <c r="D60" t="n">
-        <v>0.1471386700868607</v>
+        <v>0.1263129997947445</v>
       </c>
     </row>
     <row r="61">
@@ -1404,10 +1404,10 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.01237350143492222</v>
+        <v>0.01241805243675839</v>
       </c>
       <c r="D61" t="n">
-        <v>0.1492024511098862</v>
+        <v>0.1341758337739396</v>
       </c>
     </row>
     <row r="62">
@@ -1420,10 +1420,10 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.0005024138954468071</v>
+        <v>0.0005722304659398043</v>
       </c>
       <c r="D62" t="n">
-        <v>0.002664563711732626</v>
+        <v>0.001706369273836584</v>
       </c>
     </row>
     <row r="63">
@@ -1436,10 +1436,10 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.0003718061198014766</v>
+        <v>0.0003549280589963118</v>
       </c>
       <c r="D63" t="n">
-        <v>0.001272570341825485</v>
+        <v>0.00126025716659345</v>
       </c>
     </row>
     <row r="64">
@@ -1452,10 +1452,10 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.0003433911770116538</v>
+        <v>0.0003531338283808086</v>
       </c>
       <c r="D64" t="n">
-        <v>0.002257349668070674</v>
+        <v>0.001272917750661504</v>
       </c>
     </row>
     <row r="65">
@@ -1468,10 +1468,10 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.0004237435932736844</v>
+        <v>0.0003872154932788076</v>
       </c>
       <c r="D65" t="n">
-        <v>0.00109480565879494</v>
+        <v>0.001176916757735666</v>
       </c>
     </row>
     <row r="66">
@@ -1484,10 +1484,10 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.0003437601844780147</v>
+        <v>0.0003452605611926952</v>
       </c>
       <c r="D66" t="n">
-        <v>0.001165603986009955</v>
+        <v>0.001212013891757759</v>
       </c>
     </row>
     <row r="67">
@@ -1500,10 +1500,10 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.0003665254334919155</v>
+        <v>0.0003476715046666843</v>
       </c>
       <c r="D67" t="n">
-        <v>0.001513484050519764</v>
+        <v>0.001147924978222239</v>
       </c>
     </row>
     <row r="68">
@@ -1516,10 +1516,10 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.0004191439365968108</v>
+        <v>0.0003367543578537003</v>
       </c>
       <c r="D68" t="n">
-        <v>0.001371881575323641</v>
+        <v>0.001153001628739581</v>
       </c>
     </row>
     <row r="69">
@@ -1532,10 +1532,10 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.0003435910330154002</v>
+        <v>0.0003542514635116015</v>
       </c>
       <c r="D69" t="n">
-        <v>0.001237614662386477</v>
+        <v>0.001207990549530273</v>
       </c>
     </row>
     <row r="70">
@@ -1548,10 +1548,10 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.0003539988247212023</v>
+        <v>0.0003224208582015644</v>
       </c>
       <c r="D70" t="n">
-        <v>0.001145659363828599</v>
+        <v>0.001343570085089297</v>
       </c>
     </row>
     <row r="71">
@@ -1564,10 +1564,10 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.0003825873136520386</v>
+        <v>0.0003520170591886423</v>
       </c>
       <c r="D71" t="n">
-        <v>0.001289103180170059</v>
+        <v>0.001132748977995593</v>
       </c>
     </row>
     <row r="72">
@@ -1580,10 +1580,10 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.0004306607588659972</v>
+        <v>0.0003534736500874366</v>
       </c>
       <c r="D72" t="n">
-        <v>0.00158681022003293</v>
+        <v>0.001150950166709364</v>
       </c>
     </row>
     <row r="73">
@@ -1596,10 +1596,10 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0.0003299515519756824</v>
+        <v>0.0003551222489228191</v>
       </c>
       <c r="D73" t="n">
-        <v>0.001155510311946273</v>
+        <v>0.001228398416982326</v>
       </c>
     </row>
     <row r="74">
@@ -1612,10 +1612,10 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0.01249254774302244</v>
+        <v>0.01252150078852699</v>
       </c>
       <c r="D74" t="n">
-        <v>0.1201784685254097</v>
+        <v>0.1138661590545145</v>
       </c>
     </row>
     <row r="75">
@@ -1628,10 +1628,10 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0.01273044757544994</v>
+        <v>0.01239777103780884</v>
       </c>
       <c r="D75" t="n">
-        <v>0.1216869503259659</v>
+        <v>0.1495597660541534</v>
       </c>
     </row>
     <row r="76">
@@ -1644,10 +1644,10 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0.01251291763037443</v>
+        <v>0.01230930100986096</v>
       </c>
       <c r="D76" t="n">
-        <v>0.1465180218219757</v>
+        <v>0.1377080593207111</v>
       </c>
     </row>
     <row r="77">
@@ -1660,10 +1660,10 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.01251512579619884</v>
+        <v>0.01262358479099731</v>
       </c>
       <c r="D77" t="n">
-        <v>0.1237158551812172</v>
+        <v>0.125431529463154</v>
       </c>
     </row>
     <row r="78">
@@ -1676,10 +1676,10 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0.01248534861952066</v>
+        <v>0.01237820318504556</v>
       </c>
       <c r="D78" t="n">
-        <v>0.1540209054946899</v>
+        <v>0.140903599866449</v>
       </c>
     </row>
     <row r="79">
@@ -1692,10 +1692,10 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0.0124857360497117</v>
+        <v>0.01260357454725324</v>
       </c>
       <c r="D79" t="n">
-        <v>0.1285364776849747</v>
+        <v>0.1393527006858016</v>
       </c>
     </row>
     <row r="80">
@@ -1708,10 +1708,10 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0.01255106553435326</v>
+        <v>0.01247022050904901</v>
       </c>
       <c r="D80" t="n">
-        <v>0.1185452044010162</v>
+        <v>0.1208547368033292</v>
       </c>
     </row>
     <row r="81">
@@ -1724,10 +1724,10 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0.01282790955156088</v>
+        <v>0.01233788316890802</v>
       </c>
       <c r="D81" t="n">
-        <v>0.1513216495513916</v>
+        <v>0.1438249811938364</v>
       </c>
     </row>
     <row r="82">
@@ -1740,10 +1740,10 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0.01256041508167982</v>
+        <v>0.01284243099468007</v>
       </c>
       <c r="D82" t="n">
-        <v>0.1477254033088684</v>
+        <v>0.1184181636326934</v>
       </c>
     </row>
     <row r="83">
@@ -1756,10 +1756,10 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0.01268966682255268</v>
+        <v>0.01269649508830211</v>
       </c>
       <c r="D83" t="n">
-        <v>0.131258025765419</v>
+        <v>0.115161536695206</v>
       </c>
     </row>
     <row r="84">
@@ -1772,10 +1772,10 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0.01247953344136477</v>
+        <v>0.01252111511891835</v>
       </c>
       <c r="D84" t="n">
-        <v>0.151933029294014</v>
+        <v>0.1396144804072707</v>
       </c>
     </row>
     <row r="85">
@@ -1788,10 +1788,10 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0.01235364377498627</v>
+        <v>0.01247439736321773</v>
       </c>
       <c r="D85" t="n">
-        <v>0.1433454304933548</v>
+        <v>0.150616147134402</v>
       </c>
     </row>
     <row r="86">
@@ -1804,10 +1804,10 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0.0003997823514509946</v>
+        <v>0.0003930811681752795</v>
       </c>
       <c r="D86" t="n">
-        <v>0.005181762855499983</v>
+        <v>0.003768327283953661</v>
       </c>
     </row>
     <row r="87">
@@ -1820,10 +1820,10 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0.0003387148899491876</v>
+        <v>0.0003603129338294472</v>
       </c>
       <c r="D87" t="n">
-        <v>0.001767904032021761</v>
+        <v>0.001655663098910288</v>
       </c>
     </row>
     <row r="88">
@@ -1836,10 +1836,10 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0.0003530231188051403</v>
+        <v>0.0003347259751610356</v>
       </c>
       <c r="D88" t="n">
-        <v>0.00117164384573698</v>
+        <v>0.001163987297730597</v>
       </c>
     </row>
     <row r="89">
@@ -1852,10 +1852,10 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0.000362913851859048</v>
+        <v>0.0003706561261947484</v>
       </c>
       <c r="D89" t="n">
-        <v>0.001567583531141281</v>
+        <v>0.001268435709739793</v>
       </c>
     </row>
     <row r="90">
@@ -1868,10 +1868,10 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0.0003553959541022778</v>
+        <v>0.0003254608424980041</v>
       </c>
       <c r="D90" t="n">
-        <v>0.001956406980752945</v>
+        <v>0.001153960896572991</v>
       </c>
     </row>
     <row r="91">
@@ -1884,10 +1884,10 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0.0003515949647407979</v>
+        <v>0.0003320051800485139</v>
       </c>
       <c r="D91" t="n">
-        <v>0.001663638046011329</v>
+        <v>0.00116980033256879</v>
       </c>
     </row>
     <row r="92">
@@ -1900,10 +1900,10 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0.0004481332434806973</v>
+        <v>0.0003356970280025327</v>
       </c>
       <c r="D92" t="n">
-        <v>0.001243499224074185</v>
+        <v>0.001190978813635772</v>
       </c>
     </row>
     <row r="93">
@@ -1916,10 +1916,10 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0.0003212981391698122</v>
+        <v>0.0003466675086812059</v>
       </c>
       <c r="D93" t="n">
-        <v>0.001138808438554406</v>
+        <v>0.001230654973307089</v>
       </c>
     </row>
     <row r="94">
@@ -1932,10 +1932,10 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>0.0003316452784929425</v>
+        <v>0.0003453664901651991</v>
       </c>
       <c r="D94" t="n">
-        <v>0.001253517461009324</v>
+        <v>0.00115846809596206</v>
       </c>
     </row>
     <row r="95">
@@ -1948,10 +1948,10 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>0.000355035939719528</v>
+        <v>0.0003475560752371141</v>
       </c>
       <c r="D95" t="n">
-        <v>0.00130011816509068</v>
+        <v>0.001208979456226201</v>
       </c>
     </row>
     <row r="96">
@@ -1964,10 +1964,10 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0.0003347252786625177</v>
+        <v>0.0003363247591027773</v>
       </c>
       <c r="D96" t="n">
-        <v>0.001220561331138015</v>
+        <v>0.001162556424252179</v>
       </c>
     </row>
     <row r="97">
@@ -1980,10 +1980,10 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>0.0003345881996210665</v>
+        <v>0.0003273488247244019</v>
       </c>
       <c r="D97" t="n">
-        <v>0.001694522914476693</v>
+        <v>0.001168294401507672</v>
       </c>
     </row>
     <row r="98">
@@ -1996,10 +1996,10 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>0.01262391824275255</v>
+        <v>0.01267597148169393</v>
       </c>
       <c r="D98" t="n">
-        <v>0.1304568648338318</v>
+        <v>0.1304092733827356</v>
       </c>
     </row>
     <row r="99">
@@ -2012,10 +2012,10 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0.0135963624343276</v>
+        <v>0.01236016489565372</v>
       </c>
       <c r="D99" t="n">
-        <v>0.1277203410863876</v>
+        <v>0.142491708675476</v>
       </c>
     </row>
     <row r="100">
@@ -2028,10 +2028,10 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0.01244939025491476</v>
+        <v>0.01342328455401202</v>
       </c>
       <c r="D100" t="n">
-        <v>0.1448832452297211</v>
+        <v>0.1531202966628009</v>
       </c>
     </row>
     <row r="101">
@@ -2044,10 +2044,10 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0.01265745330601931</v>
+        <v>0.01263727661069125</v>
       </c>
       <c r="D101" t="n">
-        <v>0.1217925176024437</v>
+        <v>0.1290924013273357</v>
       </c>
     </row>
     <row r="102">
@@ -2060,10 +2060,10 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>0.01249552797526121</v>
+        <v>0.01235966066740555</v>
       </c>
       <c r="D102" t="n">
-        <v>0.1497469842433929</v>
+        <v>0.1373436622423669</v>
       </c>
     </row>
     <row r="103">
@@ -2076,10 +2076,10 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>0.01234028395265341</v>
+        <v>0.01273943335838514</v>
       </c>
       <c r="D103" t="n">
-        <v>0.1351505219936371</v>
+        <v>0.1416456429925683</v>
       </c>
     </row>
     <row r="104">
@@ -2092,10 +2092,10 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>0.01278412155807018</v>
+        <v>0.01260348269396959</v>
       </c>
       <c r="D104" t="n">
-        <v>0.1297847926616669</v>
+        <v>0.1321493636255395</v>
       </c>
     </row>
     <row r="105">
@@ -2108,10 +2108,10 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>0.0126316724345088</v>
+        <v>0.01244116521899729</v>
       </c>
       <c r="D105" t="n">
-        <v>0.138506144285202</v>
+        <v>0.1430992299359139</v>
       </c>
     </row>
     <row r="106">
@@ -2124,10 +2124,10 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>0.01255673170089722</v>
+        <v>0.0127485364496912</v>
       </c>
       <c r="D106" t="n">
-        <v>0.1420920640230179</v>
+        <v>0.146449429123369</v>
       </c>
     </row>
     <row r="107">
@@ -2140,10 +2140,10 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>0.01280563324689865</v>
+        <v>0.01252373329631678</v>
       </c>
       <c r="D107" t="n">
-        <v>0.1163230538368225</v>
+        <v>0.1375324236203546</v>
       </c>
     </row>
     <row r="108">
@@ -2156,10 +2156,10 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>0.01254970207810402</v>
+        <v>0.01238970856552255</v>
       </c>
       <c r="D108" t="n">
-        <v>0.1330971270799637</v>
+        <v>0.1385578344741913</v>
       </c>
     </row>
     <row r="109">
@@ -2172,10 +2172,10 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>0.01239287853240967</v>
+        <v>0.01234253548238784</v>
       </c>
       <c r="D109" t="n">
-        <v>0.1533730328083038</v>
+        <v>0.1431929665069057</v>
       </c>
     </row>
     <row r="110">
@@ -2188,10 +2188,10 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>0.0005523583386093378</v>
+        <v>0.0005865118901679062</v>
       </c>
       <c r="D110" t="n">
-        <v>0.003533226903527975</v>
+        <v>0.001872138482237821</v>
       </c>
     </row>
     <row r="111">
@@ -2204,10 +2204,10 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>0.0003363186842761934</v>
+        <v>0.0003495520921280506</v>
       </c>
       <c r="D111" t="n">
-        <v>0.001360288239084184</v>
+        <v>0.001196473613636543</v>
       </c>
     </row>
     <row r="112">
@@ -2220,10 +2220,10 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>0.0003408926713746041</v>
+        <v>0.000329638258310845</v>
       </c>
       <c r="D112" t="n">
-        <v>0.002022236119955778</v>
+        <v>0.001120619046859035</v>
       </c>
     </row>
     <row r="113">
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>0.0003866898186970502</v>
+        <v>0.0004745918275845837</v>
       </c>
       <c r="D113" t="n">
-        <v>0.00106984528247267</v>
+        <v>0.001112255499034814</v>
       </c>
     </row>
     <row r="114">
@@ -2252,10 +2252,10 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>0.0003431500226724893</v>
+        <v>0.0003687135288364267</v>
       </c>
       <c r="D114" t="n">
-        <v>0.001357518485747278</v>
+        <v>0.001092841983485763</v>
       </c>
     </row>
     <row r="115">
@@ -2268,10 +2268,10 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>0.000371706613805145</v>
+        <v>0.0003419608062470877</v>
       </c>
       <c r="D115" t="n">
-        <v>0.001209969166666269</v>
+        <v>0.001051350683292808</v>
       </c>
     </row>
     <row r="116">
@@ -2284,10 +2284,10 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>0.0003362854477018118</v>
+        <v>0.0003362704207562548</v>
       </c>
       <c r="D116" t="n">
-        <v>0.001037523616105318</v>
+        <v>0.00106773320154912</v>
       </c>
     </row>
     <row r="117">
@@ -2300,10 +2300,10 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>0.0003445095790084451</v>
+        <v>0.000321957985300424</v>
       </c>
       <c r="D117" t="n">
-        <v>0.001069738296791911</v>
+        <v>0.001042915024150367</v>
       </c>
     </row>
     <row r="118">
@@ -2316,10 +2316,10 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>0.0003257684875279665</v>
+        <v>0.0003229927260441425</v>
       </c>
       <c r="D118" t="n">
-        <v>0.001039256691001356</v>
+        <v>0.001319336561384062</v>
       </c>
     </row>
     <row r="119">
@@ -2332,10 +2332,10 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>0.0003460232983343303</v>
+        <v>0.0003401810121531152</v>
       </c>
       <c r="D119" t="n">
-        <v>0.001100508728995919</v>
+        <v>0.001079296667490805</v>
       </c>
     </row>
     <row r="120">
@@ -2348,10 +2348,10 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>0.0003320329415146261</v>
+        <v>0.0003364917650549315</v>
       </c>
       <c r="D120" t="n">
-        <v>0.001068847603164613</v>
+        <v>0.001222154824063182</v>
       </c>
     </row>
     <row r="121">
@@ -2364,10 +2364,10 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>0.0003483304171822965</v>
+        <v>0.0004309346729551429</v>
       </c>
       <c r="D121" t="n">
-        <v>0.00150329084135592</v>
+        <v>0.001108506289374543</v>
       </c>
     </row>
     <row r="122">
@@ -2380,10 +2380,10 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>0.01274348050355911</v>
+        <v>0.01253567286448119</v>
       </c>
       <c r="D122" t="n">
-        <v>0.1196544840931892</v>
+        <v>0.123336450081982</v>
       </c>
     </row>
     <row r="123">
@@ -2396,10 +2396,10 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>0.01245887763798237</v>
+        <v>0.01249768570175535</v>
       </c>
       <c r="D123" t="n">
-        <v>0.1418949067592621</v>
+        <v>0.1435333327071308</v>
       </c>
     </row>
     <row r="124">
@@ -2412,10 +2412,10 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>0.01245343033224344</v>
+        <v>0.01242173756536556</v>
       </c>
       <c r="D124" t="n">
-        <v>0.1521250307559967</v>
+        <v>0.1393638932949876</v>
       </c>
     </row>
     <row r="125">
@@ -2428,10 +2428,10 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>0.01258965581655502</v>
+        <v>0.01246051040911817</v>
       </c>
       <c r="D125" t="n">
-        <v>0.1293404251337051</v>
+        <v>0.1191444555169915</v>
       </c>
     </row>
     <row r="126">
@@ -2444,10 +2444,10 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>0.0125054782256484</v>
+        <v>0.01269869135105855</v>
       </c>
       <c r="D126" t="n">
-        <v>0.1527768671512604</v>
+        <v>0.1334207492740187</v>
       </c>
     </row>
     <row r="127">
@@ -2460,10 +2460,10 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>0.01249380875378847</v>
+        <v>0.01236061129259737</v>
       </c>
       <c r="D127" t="n">
-        <v>0.1484990864992142</v>
+        <v>0.132733721643278</v>
       </c>
     </row>
     <row r="128">
@@ -2476,10 +2476,10 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>0.0125897629186511</v>
+        <v>0.01249784727784971</v>
       </c>
       <c r="D128" t="n">
-        <v>0.1202251091599464</v>
+        <v>0.1241136119790273</v>
       </c>
     </row>
     <row r="129">
@@ -2492,10 +2492,10 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>0.01239319983869791</v>
+        <v>0.0123933298857755</v>
       </c>
       <c r="D129" t="n">
-        <v>0.1383929252624512</v>
+        <v>0.1398910618808172</v>
       </c>
     </row>
     <row r="130">
@@ -2508,10 +2508,10 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>0.01237934362143278</v>
+        <v>0.01242079325530627</v>
       </c>
       <c r="D130" t="n">
-        <v>0.1462214291095734</v>
+        <v>0.1548597635063406</v>
       </c>
     </row>
     <row r="131">
@@ -2524,10 +2524,10 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>0.01235218811780214</v>
+        <v>0.01260467839414534</v>
       </c>
       <c r="D131" t="n">
-        <v>0.1221940517425537</v>
+        <v>0.1249734651144237</v>
       </c>
     </row>
     <row r="132">
@@ -2540,10 +2540,10 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>0.01234019920229912</v>
+        <v>0.01249887858045428</v>
       </c>
       <c r="D132" t="n">
-        <v>0.1389903575181961</v>
+        <v>0.1501964918554646</v>
       </c>
     </row>
     <row r="133">
@@ -2556,10 +2556,10 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>0.01225639600306749</v>
+        <v>0.01239045944115887</v>
       </c>
       <c r="D133" t="n">
-        <v>0.1268952041864395</v>
+        <v>0.146197914464833</v>
       </c>
     </row>
     <row r="134">
@@ -2572,10 +2572,10 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>0.000483219395391643</v>
+        <v>0.0003389955664927472</v>
       </c>
       <c r="D134" t="n">
-        <v>0.001525903702713549</v>
+        <v>0.00179111596184132</v>
       </c>
     </row>
     <row r="135">
@@ -2588,10 +2588,10 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>0.0003371465427335352</v>
+        <v>0.0003324934461912338</v>
       </c>
       <c r="D135" t="n">
-        <v>0.002000271808356047</v>
+        <v>0.001200734058790521</v>
       </c>
     </row>
     <row r="136">
@@ -2604,10 +2604,10 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>0.0003531957918312401</v>
+        <v>0.000315707777339761</v>
       </c>
       <c r="D136" t="n">
-        <v>0.002139028394594789</v>
+        <v>0.001066963604574844</v>
       </c>
     </row>
     <row r="137">
@@ -2620,10 +2620,10 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>0.0003807487955782562</v>
+        <v>0.0003251719602689861</v>
       </c>
       <c r="D137" t="n">
-        <v>0.002936015371233225</v>
+        <v>0.001986405621633597</v>
       </c>
     </row>
     <row r="138">
@@ -2636,10 +2636,10 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>0.000348584377206862</v>
+        <v>0.0003444890329001905</v>
       </c>
       <c r="D138" t="n">
-        <v>0.001580796204507351</v>
+        <v>0.001052225059638285</v>
       </c>
     </row>
     <row r="139">
@@ -2652,10 +2652,10 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>0.0003214148164261132</v>
+        <v>0.0003200635227872289</v>
       </c>
       <c r="D139" t="n">
-        <v>0.001518314937129617</v>
+        <v>0.001248334210735988</v>
       </c>
     </row>
     <row r="140">
@@ -2668,10 +2668,10 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>0.0003524859785102308</v>
+        <v>0.0003684932076569953</v>
       </c>
       <c r="D140" t="n">
-        <v>0.00124924979172647</v>
+        <v>0.002219594635503137</v>
       </c>
     </row>
     <row r="141">
@@ -2684,10 +2684,10 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>0.0003678746579680592</v>
+        <v>0.0003192283313606598</v>
       </c>
       <c r="D141" t="n">
-        <v>0.001288881176151335</v>
+        <v>0.001109135034972521</v>
       </c>
     </row>
     <row r="142">
@@ -2700,10 +2700,10 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>0.0003820224374067038</v>
+        <v>0.0003643531303642292</v>
       </c>
       <c r="D142" t="n">
-        <v>0.001148485112935305</v>
+        <v>0.001065614255311044</v>
       </c>
     </row>
     <row r="143">
@@ -2716,10 +2716,10 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>0.0003605597303248942</v>
+        <v>0.0003390030033187941</v>
       </c>
       <c r="D143" t="n">
-        <v>0.001417935942299664</v>
+        <v>0.001131826252612757</v>
       </c>
     </row>
     <row r="144">
@@ -2732,10 +2732,10 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>0.0003344840661156923</v>
+        <v>0.0003478272139471126</v>
       </c>
       <c r="D144" t="n">
-        <v>0.001088555785827339</v>
+        <v>0.001085690130186203</v>
       </c>
     </row>
     <row r="145">
@@ -2748,10 +2748,10 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>0.0003488822258077562</v>
+        <v>0.0003423740798671258</v>
       </c>
       <c r="D145" t="n">
-        <v>0.001178654143586755</v>
+        <v>0.001149692673121311</v>
       </c>
     </row>
     <row r="146">
@@ -2764,10 +2764,10 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>0.01252776011824608</v>
+        <v>0.0128748566294982</v>
       </c>
       <c r="D146" t="n">
-        <v>0.1335826218128204</v>
+        <v>0.1240905841735944</v>
       </c>
     </row>
     <row r="147">
@@ -2780,10 +2780,10 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>0.0124180419370532</v>
+        <v>0.01232409360499619</v>
       </c>
       <c r="D147" t="n">
-        <v>0.1508080512285233</v>
+        <v>0.1462219018642217</v>
       </c>
     </row>
     <row r="148">
@@ -2796,10 +2796,10 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>0.01251048780977726</v>
+        <v>0.01250997914817848</v>
       </c>
       <c r="D148" t="n">
-        <v>0.1447595506906509</v>
+        <v>0.1320865700302059</v>
       </c>
     </row>
     <row r="149">
@@ -2812,10 +2812,10 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>0.01272196136415005</v>
+        <v>0.01275876054718886</v>
       </c>
       <c r="D149" t="n">
-        <v>0.1038942039012909</v>
+        <v>0.1308249177998059</v>
       </c>
     </row>
     <row r="150">
@@ -2828,10 +2828,10 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>0.01235355902463198</v>
+        <v>0.01241250896239526</v>
       </c>
       <c r="D150" t="n">
-        <v>0.1454005390405655</v>
+        <v>0.1553475060691572</v>
       </c>
     </row>
     <row r="151">
@@ -2844,10 +2844,10 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>0.01247262023389339</v>
+        <v>0.01257208645445843</v>
       </c>
       <c r="D151" t="n">
-        <v>0.1434957236051559</v>
+        <v>0.1518387618946702</v>
       </c>
     </row>
     <row r="152">
@@ -2860,10 +2860,10 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>0.01270058285444975</v>
+        <v>0.01275573982155486</v>
       </c>
       <c r="D152" t="n">
-        <v>0.1295253038406372</v>
+        <v>0.1337690894326119</v>
       </c>
     </row>
     <row r="153">
@@ -2876,10 +2876,10 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>0.01255345530807972</v>
+        <v>0.01233598894809615</v>
       </c>
       <c r="D153" t="n">
-        <v>0.1343171894550323</v>
+        <v>0.1521207518773536</v>
       </c>
     </row>
     <row r="154">
@@ -2892,10 +2892,10 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>0.01267347857356071</v>
+        <v>0.01248639978289808</v>
       </c>
       <c r="D154" t="n">
-        <v>0.1375505328178406</v>
+        <v>0.1388968308902767</v>
       </c>
     </row>
     <row r="155">
@@ -2908,10 +2908,10 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>0.01270857080817223</v>
+        <v>0.01243720336319649</v>
       </c>
       <c r="D155" t="n">
-        <v>0.1255643963813782</v>
+        <v>0.1403248838774145</v>
       </c>
     </row>
     <row r="156">
@@ -2924,10 +2924,10 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>0.01232935022562742</v>
+        <v>0.01250765004437672</v>
       </c>
       <c r="D156" t="n">
-        <v>0.1418782919645309</v>
+        <v>0.1452225752889293</v>
       </c>
     </row>
     <row r="157">
@@ -2940,10 +2940,10 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>0.01235355250537395</v>
+        <v>0.01259886621408267</v>
       </c>
       <c r="D157" t="n">
-        <v>0.1447708606719971</v>
+        <v>0.1530098045525486</v>
       </c>
     </row>
     <row r="158">
@@ -2956,10 +2956,10 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>0.0004954746691510081</v>
+        <v>0.0004926188411358552</v>
       </c>
       <c r="D158" t="n">
-        <v>0.002094807103276253</v>
+        <v>0.002281328752534847</v>
       </c>
     </row>
     <row r="159">
@@ -2972,10 +2972,10 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>0.0005360357463359833</v>
+        <v>0.0003419028708116432</v>
       </c>
       <c r="D159" t="n">
-        <v>0.001494138152338564</v>
+        <v>0.001540322394161294</v>
       </c>
     </row>
     <row r="160">
@@ -2988,10 +2988,10 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>0.0003486029745545238</v>
+        <v>0.000347003863892384</v>
       </c>
       <c r="D160" t="n">
-        <v>0.001444822293706238</v>
+        <v>0.001855099028333613</v>
       </c>
     </row>
     <row r="161">
@@ -3004,10 +3004,10 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>0.000419392716139555</v>
+        <v>0.000373890853091462</v>
       </c>
       <c r="D161" t="n">
-        <v>0.001253483351320028</v>
+        <v>0.001183355888925901</v>
       </c>
     </row>
     <row r="162">
@@ -3020,10 +3020,10 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>0.0003451819939073175</v>
+        <v>0.0003423072072383884</v>
       </c>
       <c r="D162" t="n">
-        <v>0.001296801259741187</v>
+        <v>0.001228952525209074</v>
       </c>
     </row>
     <row r="163">
@@ -3036,10 +3036,10 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>0.0003433978708926588</v>
+        <v>0.0003537423269821599</v>
       </c>
       <c r="D163" t="n">
-        <v>0.001192591385915875</v>
+        <v>0.001298409870710887</v>
       </c>
     </row>
     <row r="164">
@@ -3052,10 +3052,10 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>0.0004042963264510036</v>
+        <v>0.0003786821313814758</v>
       </c>
       <c r="D164" t="n">
-        <v>0.001281448639929295</v>
+        <v>0.001191856459976008</v>
       </c>
     </row>
     <row r="165">
@@ -3068,10 +3068,10 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>0.0003691324964165688</v>
+        <v>0.0003213707803372192</v>
       </c>
       <c r="D165" t="n">
-        <v>0.001351334853097796</v>
+        <v>0.001192511249116737</v>
       </c>
     </row>
     <row r="166">
@@ -3084,10 +3084,10 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>0.0003338539099786431</v>
+        <v>0.0003534311971671828</v>
       </c>
       <c r="D166" t="n">
-        <v>0.001202674582600594</v>
+        <v>0.001256645076640256</v>
       </c>
     </row>
     <row r="167">
@@ -3100,10 +3100,10 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>0.0003633824235294014</v>
+        <v>0.0003928301103607662</v>
       </c>
       <c r="D167" t="n">
-        <v>0.001243097358383238</v>
+        <v>0.001194441189498271</v>
       </c>
     </row>
     <row r="168">
@@ -3116,10 +3116,10 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>0.0003629351558629423</v>
+        <v>0.0004085169883631489</v>
       </c>
       <c r="D168" t="n">
-        <v>0.001376558910124004</v>
+        <v>0.001297676670269352</v>
       </c>
     </row>
     <row r="169">
@@ -3132,10 +3132,10 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>0.0003222793166060001</v>
+        <v>0.0003631633910915036</v>
       </c>
       <c r="D169" t="n">
-        <v>0.001147454953752458</v>
+        <v>0.001294997685799401</v>
       </c>
     </row>
     <row r="170">
@@ -3148,10 +3148,10 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>0.01249804999679327</v>
+        <v>0.01259182179219102</v>
       </c>
       <c r="D170" t="n">
-        <v>0.1372338384389877</v>
+        <v>0.1171322150589669</v>
       </c>
     </row>
     <row r="171">
@@ -3164,10 +3164,10 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>0.01255027018487453</v>
+        <v>0.01247671372831276</v>
       </c>
       <c r="D171" t="n">
-        <v>0.1364720910787582</v>
+        <v>0.1408427196414503</v>
       </c>
     </row>
     <row r="172">
@@ -3180,10 +3180,10 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>0.01237854454666376</v>
+        <v>0.01231847892272962</v>
       </c>
       <c r="D172" t="n">
-        <v>0.1431699693202972</v>
+        <v>0.138545592557894</v>
       </c>
     </row>
     <row r="173">
@@ -3196,10 +3196,10 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>0.01269186474382877</v>
+        <v>0.01263352681257545</v>
       </c>
       <c r="D173" t="n">
-        <v>0.1362059563398361</v>
+        <v>0.1249689421016876</v>
       </c>
     </row>
     <row r="174">
@@ -3212,10 +3212,10 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>0.0137100201100111</v>
+        <v>0.01271327025231535</v>
       </c>
       <c r="D174" t="n">
-        <v>0.1238588020205498</v>
+        <v>0.138200435736408</v>
       </c>
     </row>
     <row r="175">
@@ -3228,10 +3228,10 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>0.0124413575977087</v>
+        <v>0.01273189622857799</v>
       </c>
       <c r="D175" t="n">
-        <v>0.1358769536018372</v>
+        <v>0.1333795289878976</v>
       </c>
     </row>
     <row r="176">
@@ -3244,10 +3244,10 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>0.01281081605702639</v>
+        <v>0.01260939757148289</v>
       </c>
       <c r="D176" t="n">
-        <v>0.1293493509292603</v>
+        <v>0.1216376684095762</v>
       </c>
     </row>
     <row r="177">
@@ -3260,10 +3260,10 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>0.01248467061668634</v>
+        <v>0.01257511819649028</v>
       </c>
       <c r="D177" t="n">
-        <v>0.1470324844121933</v>
+        <v>0.14958723767163</v>
       </c>
     </row>
     <row r="178">
@@ -3276,10 +3276,10 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>0.01254261657595634</v>
+        <v>0.01233971403426912</v>
       </c>
       <c r="D178" t="n">
-        <v>0.1553069353103638</v>
+        <v>0.1415202489046201</v>
       </c>
     </row>
     <row r="179">
@@ -3292,10 +3292,10 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>0.01264375075697899</v>
+        <v>0.01284175992573369</v>
       </c>
       <c r="D179" t="n">
-        <v>0.1329188346862793</v>
+        <v>0.1299102142044943</v>
       </c>
     </row>
     <row r="180">
@@ -3308,10 +3308,10 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>0.0123907532542944</v>
+        <v>0.01258870938869372</v>
       </c>
       <c r="D180" t="n">
-        <v>0.13985575735569</v>
+        <v>0.1303921247998329</v>
       </c>
     </row>
     <row r="181">
@@ -3324,10 +3324,10 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>0.01235019695013762</v>
+        <v>0.01230742883141318</v>
       </c>
       <c r="D181" t="n">
-        <v>0.1425948143005371</v>
+        <v>0.1411854420622734</v>
       </c>
     </row>
     <row r="182">
@@ -3340,10 +3340,10 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>0.0006252198363654315</v>
+        <v>0.0004185476918044589</v>
       </c>
       <c r="D182" t="n">
-        <v>0.003398959059268236</v>
+        <v>0.001595444492485425</v>
       </c>
     </row>
     <row r="183">
@@ -3356,10 +3356,10 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>0.0003315108770038933</v>
+        <v>0.0003360529811799683</v>
       </c>
       <c r="D183" t="n">
-        <v>0.001763220527209342</v>
+        <v>0.001490598863424504</v>
       </c>
     </row>
     <row r="184">
@@ -3372,10 +3372,10 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>0.0003705893468577415</v>
+        <v>0.0003203942104759435</v>
       </c>
       <c r="D184" t="n">
-        <v>0.001451307209208608</v>
+        <v>0.001169281301235346</v>
       </c>
     </row>
     <row r="185">
@@ -3388,10 +3388,10 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>0.0003771025221794844</v>
+        <v>0.0004628681354878521</v>
       </c>
       <c r="D185" t="n">
-        <v>0.001145168673247099</v>
+        <v>0.001998341288289999</v>
       </c>
     </row>
     <row r="186">
@@ -3404,10 +3404,10 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>0.0003194669261574745</v>
+        <v>0.0003261566975421897</v>
       </c>
       <c r="D186" t="n">
-        <v>0.001297857495956123</v>
+        <v>0.001394384135555935</v>
       </c>
     </row>
     <row r="187">
@@ -3420,10 +3420,10 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>0.0003507062792778015</v>
+        <v>0.0003369256448597099</v>
       </c>
       <c r="D187" t="n">
-        <v>0.001340647344477475</v>
+        <v>0.00109099685166618</v>
       </c>
     </row>
     <row r="188">
@@ -3436,10 +3436,10 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>0.0003603178192861378</v>
+        <v>0.0003733798349794473</v>
       </c>
       <c r="D188" t="n">
-        <v>0.00152206199709326</v>
+        <v>0.001189977131155638</v>
       </c>
     </row>
     <row r="189">
@@ -3452,10 +3452,10 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>0.0003319339302834123</v>
+        <v>0.0003133383537192146</v>
       </c>
       <c r="D189" t="n">
-        <v>0.001124403206631541</v>
+        <v>0.001041362644173205</v>
       </c>
     </row>
     <row r="190">
@@ -3468,10 +3468,10 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>0.0003799126425292343</v>
+        <v>0.0003361444254900163</v>
       </c>
       <c r="D190" t="n">
-        <v>0.001343322917819023</v>
+        <v>0.001149936563220538</v>
       </c>
     </row>
     <row r="191">
@@ -3484,10 +3484,10 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>0.0004761360469274223</v>
+        <v>0.0003218778671396973</v>
       </c>
       <c r="D191" t="n">
-        <v>0.001497485674917698</v>
+        <v>0.001170756550480242</v>
       </c>
     </row>
     <row r="192">
@@ -3500,10 +3500,10 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>0.0003174059966113418</v>
+        <v>0.0003468933776786474</v>
       </c>
       <c r="D192" t="n">
-        <v>0.001094059087336063</v>
+        <v>0.001375374594728832</v>
       </c>
     </row>
     <row r="193">
@@ -3516,13 +3516,13 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>0.0003582506906241179</v>
+        <v>0.0003485867828577247</v>
       </c>
       <c r="D193" t="n">
-        <v>0.001157544204033911</v>
+        <v>0.001001387557863219</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>